--- a/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>172508</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>149168</v>
+        <v>148906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>200310</v>
+        <v>198763</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2505364004737839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.216639835899342</v>
+        <v>0.2162590224118766</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.290913199859904</v>
+        <v>0.2886669733050299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -762,19 +762,19 @@
         <v>145514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128325</v>
+        <v>125981</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167242</v>
+        <v>165325</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.198774360123171</v>
+        <v>0.1987743601231711</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1752947151279058</v>
+        <v>0.1720921605374805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2284553393129089</v>
+        <v>0.2258371841335698</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>364</v>
@@ -783,19 +783,19 @@
         <v>318022</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>287603</v>
+        <v>287154</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>350191</v>
+        <v>350129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2238628933175881</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2024501011905036</v>
+        <v>0.202134013157967</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2465071579416294</v>
+        <v>0.2464637887246019</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>516047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488245</v>
+        <v>489792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>539387</v>
+        <v>539649</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.749463599526216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7090868001400962</v>
+        <v>0.7113330266949702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7833601641006581</v>
+        <v>0.7837409775881236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1034</v>
@@ -833,19 +833,19 @@
         <v>586541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>564813</v>
+        <v>566730</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>603730</v>
+        <v>606074</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.801225639876829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.771544660687091</v>
+        <v>0.7741628158664304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8247052848720943</v>
+        <v>0.8279078394625197</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1601</v>
@@ -854,19 +854,19 @@
         <v>1102588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1070419</v>
+        <v>1070481</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1133007</v>
+        <v>1133456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7761371066824118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7534928420583706</v>
+        <v>0.7535362112753986</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7975498988094963</v>
+        <v>0.7978659868420331</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>343709</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>304525</v>
+        <v>310501</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>374185</v>
+        <v>380416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3279503127324128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2905630930602925</v>
+        <v>0.2962645460623343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3570290429873606</v>
+        <v>0.3629745764766325</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>377</v>
@@ -979,19 +979,19 @@
         <v>299076</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273642</v>
+        <v>272317</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>328227</v>
+        <v>326601</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2796810539182091</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2558961319379084</v>
+        <v>0.2546575806744004</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3069412614246501</v>
+        <v>0.3054209021730216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>675</v>
@@ -1000,19 +1000,19 @@
         <v>642785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>597702</v>
+        <v>601031</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>688533</v>
+        <v>691126</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3035729570012094</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2822811086030594</v>
+        <v>0.2838531209530668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3251786894061754</v>
+        <v>0.3264029816684575</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>704343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>673867</v>
+        <v>667636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>743527</v>
+        <v>737551</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6720496872675871</v>
+        <v>0.6720496872675872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6429709570126392</v>
+        <v>0.6370254235233677</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7094369069397075</v>
+        <v>0.7037354539376657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1137</v>
@@ -1050,19 +1050,19 @@
         <v>770271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>741120</v>
+        <v>742746</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>795705</v>
+        <v>797030</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7203189460817908</v>
+        <v>0.7203189460817909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6930587385753501</v>
+        <v>0.6945790978269779</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7441038680620912</v>
+        <v>0.7453424193255995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1802</v>
@@ -1071,19 +1071,19 @@
         <v>1474615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1428867</v>
+        <v>1426274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1519698</v>
+        <v>1516369</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6964270429987905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6748213105938246</v>
+        <v>0.6735970183315426</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7177188913969406</v>
+        <v>0.7161468790469331</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>193221</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167144</v>
+        <v>167066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221996</v>
+        <v>225163</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2406016316212895</v>
+        <v>0.2406016316212896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2081300286608088</v>
+        <v>0.2080337105245943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2764325492505583</v>
+        <v>0.2803767093114736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -1196,19 +1196,19 @@
         <v>173032</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>151427</v>
+        <v>152435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198608</v>
+        <v>196872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2130254898348543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1864271006385394</v>
+        <v>0.1876676609990044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2445132650141238</v>
+        <v>0.2423756325851958</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>365</v>
@@ -1217,19 +1217,19 @@
         <v>366253</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>329412</v>
+        <v>331926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>402234</v>
+        <v>400553</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2267351539347753</v>
+        <v>0.2267351539347754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2039284115152481</v>
+        <v>0.2054844446347651</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2490099368614068</v>
+        <v>0.2479693881234299</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>609852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>581077</v>
+        <v>577910</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>635929</v>
+        <v>636007</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7593983683787104</v>
+        <v>0.7593983683787106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7235674507494417</v>
+        <v>0.7196232906885275</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7918699713391915</v>
+        <v>0.7919662894754057</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>845</v>
@@ -1267,19 +1267,19 @@
         <v>639227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>613651</v>
+        <v>615387</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660832</v>
+        <v>659824</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7869745101651456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7554867349858762</v>
+        <v>0.7576243674148042</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8135728993614607</v>
+        <v>0.8123323390009956</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1358</v>
@@ -1288,19 +1288,19 @@
         <v>1249079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1213098</v>
+        <v>1214779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1285920</v>
+        <v>1283406</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7732648460652247</v>
+        <v>0.7732648460652246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7509900631385924</v>
+        <v>0.7520306118765701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7960715884847516</v>
+        <v>0.7945155553652348</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>297165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>267909</v>
+        <v>267094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>333496</v>
+        <v>328543</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3007967708901064</v>
+        <v>0.3007967708901065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.271183120833891</v>
+        <v>0.2703578666152698</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3375712245967565</v>
+        <v>0.3325577971854719</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>327</v>
@@ -1413,19 +1413,19 @@
         <v>265936</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>238830</v>
+        <v>239125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>293566</v>
+        <v>291268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2386538342099916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2143283478785646</v>
+        <v>0.2145935846378283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2634497030619133</v>
+        <v>0.2613869523091791</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>605</v>
@@ -1434,19 +1434,19 @@
         <v>563101</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>520028</v>
+        <v>523581</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>604364</v>
+        <v>606954</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2678572439137894</v>
+        <v>0.2678572439137893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2473680599030617</v>
+        <v>0.2490584498318265</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2874854815718836</v>
+        <v>0.2887175044746366</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>690762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>654431</v>
+        <v>659384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>720018</v>
+        <v>720833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6992032291098935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6624287754032434</v>
+        <v>0.6674422028145282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.728816879166109</v>
+        <v>0.7296421333847303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1228</v>
@@ -1484,19 +1484,19 @@
         <v>848381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>820751</v>
+        <v>823049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>875487</v>
+        <v>875192</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7613461657900084</v>
+        <v>0.7613461657900082</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7365502969380868</v>
+        <v>0.7386130476908214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7856716521214355</v>
+        <v>0.7854064153621718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1954</v>
@@ -1505,19 +1505,19 @@
         <v>1539142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1497879</v>
+        <v>1495289</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1582215</v>
+        <v>1578662</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7321427560862106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7125145184281158</v>
+        <v>0.7112824955253635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7526319400969385</v>
+        <v>0.7509415501681737</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>1006603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>946519</v>
+        <v>947048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1070065</v>
+        <v>1070587</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2853500960977597</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.2684676746591798</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.3034880772338439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1109</v>
@@ -1630,19 +1630,19 @@
         <v>883558</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>833786</v>
+        <v>834587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>931534</v>
+        <v>936029</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.2370072405690869</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.223871296456766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.2510821639430623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2009</v>
@@ -1651,19 +1651,19 @@
         <v>1890161</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1813076</v>
+        <v>1816199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1968403</v>
+        <v>1968221</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2605111505648273</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.2503173368161992</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.2712698007998406</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2521004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2457542</v>
+        <v>2457020</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2581088</v>
+        <v>2580559</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.7146499039022404</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.6965119227661558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.7315323253408202</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4244</v>
@@ -1701,19 +1701,19 @@
         <v>2844420</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2796444</v>
+        <v>2791949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2894192</v>
+        <v>2893391</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7629927594309129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.7489178360569376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.776128703543234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6715</v>
@@ -1722,19 +1722,19 @@
         <v>5365424</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5287182</v>
+        <v>5287364</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5442509</v>
+        <v>5439386</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.7394888494351727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.7287301992001592</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.7496826631838003</v>
       </c>
     </row>
     <row r="18">
